--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87261.99532174248</v>
+        <v>-77500.65084387858</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22503840.01577706</v>
+        <v>22115680.32694067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>850635.5106673562</v>
+        <v>1021845.86719587</v>
       </c>
     </row>
     <row r="11">
@@ -23270,49 +23272,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.2163880441079</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H11" t="n">
-        <v>303.4508422388722</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I11" t="n">
-        <v>69.11834381539616</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J11" t="n">
-        <v>37.28507488358404</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K11" t="n">
-        <v>35.12399553673127</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L11" t="n">
-        <v>28.47824703393654</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M11" t="n">
-        <v>18.73185804160391</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N11" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>21.64722461951303</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P11" t="n">
-        <v>32.58945119244859</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.18035332317012</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R11" t="n">
-        <v>60.63953250900509</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S11" t="n">
-        <v>124.2523906577833</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T11" t="n">
-        <v>218.1256748333563</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23349,22 +23351,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.6930234561154</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H12" t="n">
-        <v>67.84558205340525</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I12" t="n">
-        <v>32.48451738197028</v>
+        <v>30.71419023103866</v>
       </c>
       <c r="J12" t="n">
-        <v>29.90494529109833</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K12" t="n">
-        <v>19.13988639553256</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L12" t="n">
-        <v>6.785808794917678</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23373,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>10.87667177962184</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.69225648436267</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R12" t="n">
-        <v>44.89460795773296</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S12" t="n">
-        <v>102.6901904232857</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T12" t="n">
-        <v>156.8327176907766</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3623561674602</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -23428,49 +23430,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.3874202901603</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H13" t="n">
-        <v>146.4179569850202</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I13" t="n">
-        <v>109.4547270939081</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J13" t="n">
-        <v>37.96713772285098</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K13" t="n">
-        <v>30.12158188642509</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L13" t="n">
-        <v>26.31106434786214</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M13" t="n">
-        <v>26.40839431103658</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N13" t="n">
-        <v>22.56601930391407</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O13" t="n">
-        <v>29.15327125498115</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P13" t="n">
-        <v>32.74373904234409</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.41052227552</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R13" t="n">
-        <v>75.85590789965747</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S13" t="n">
-        <v>181.2085322879926</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T13" t="n">
-        <v>236.3394386278895</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23507,49 +23509,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.2163880441079</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H14" t="n">
-        <v>303.4508422388722</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I14" t="n">
-        <v>69.11834381539616</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J14" t="n">
-        <v>37.28507488358404</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K14" t="n">
-        <v>35.12399553673127</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L14" t="n">
-        <v>28.47824703393654</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M14" t="n">
-        <v>18.73185804160391</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N14" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>21.64722461951303</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P14" t="n">
-        <v>32.58945119244859</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.18035332317012</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R14" t="n">
-        <v>60.63953250900509</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S14" t="n">
-        <v>124.2523906577833</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T14" t="n">
-        <v>218.1256748333563</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U14" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23586,22 +23588,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.6930234561154</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H15" t="n">
-        <v>67.84558205340525</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I15" t="n">
-        <v>32.48451738197028</v>
+        <v>30.71419023103866</v>
       </c>
       <c r="J15" t="n">
-        <v>29.90494529109833</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K15" t="n">
-        <v>19.13988639553256</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L15" t="n">
-        <v>6.785808794917678</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23610,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>10.87667177962184</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.69225648436267</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R15" t="n">
-        <v>44.89460795773296</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S15" t="n">
-        <v>102.6901904232857</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T15" t="n">
-        <v>156.8327176907766</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3623561674602</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -23665,49 +23667,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.3874202901603</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H16" t="n">
-        <v>146.4179569850202</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I16" t="n">
-        <v>109.4547270939081</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J16" t="n">
-        <v>37.96713772285098</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K16" t="n">
-        <v>30.12158188642509</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L16" t="n">
-        <v>26.31106434786214</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M16" t="n">
-        <v>26.40839431103658</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N16" t="n">
-        <v>22.56601930391407</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O16" t="n">
-        <v>29.15327125498115</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P16" t="n">
-        <v>32.74373904234409</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.41052227552</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R16" t="n">
-        <v>75.85590789965747</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S16" t="n">
-        <v>181.2085322879926</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T16" t="n">
-        <v>236.3394386278895</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23744,49 +23746,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.2163880441079</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H17" t="n">
-        <v>303.4508422388722</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I17" t="n">
-        <v>69.11834381539616</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J17" t="n">
-        <v>37.28507488358404</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K17" t="n">
-        <v>35.12399553673127</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L17" t="n">
-        <v>28.47824703393654</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M17" t="n">
-        <v>18.73185804160391</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N17" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>21.64722461951303</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P17" t="n">
-        <v>32.58945119244859</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.18035332317012</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R17" t="n">
-        <v>60.63953250900509</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S17" t="n">
-        <v>124.2523906577833</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T17" t="n">
-        <v>218.1256748333563</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23823,22 +23825,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.6930234561154</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H18" t="n">
-        <v>67.84558205340525</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I18" t="n">
-        <v>32.48451738197028</v>
+        <v>30.71419023103866</v>
       </c>
       <c r="J18" t="n">
-        <v>29.90494529109833</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K18" t="n">
-        <v>19.13988639553256</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L18" t="n">
-        <v>6.785808794917678</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23847,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>10.87667177962184</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.69225648436267</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R18" t="n">
-        <v>44.89460795773296</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S18" t="n">
-        <v>102.6901904232857</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T18" t="n">
-        <v>156.8327176907766</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3623561674602</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -23902,49 +23904,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.3874202901603</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H19" t="n">
-        <v>146.4179569850202</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I19" t="n">
-        <v>109.4547270939081</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J19" t="n">
-        <v>37.96713772285098</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K19" t="n">
-        <v>30.12158188642509</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L19" t="n">
-        <v>26.31106434786214</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M19" t="n">
-        <v>26.40839431103658</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N19" t="n">
-        <v>22.56601930391407</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O19" t="n">
-        <v>29.15327125498115</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P19" t="n">
-        <v>32.74373904234409</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.41052227552</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R19" t="n">
-        <v>75.85590789965747</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S19" t="n">
-        <v>181.2085322879926</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T19" t="n">
-        <v>236.3394386278895</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23981,49 +23983,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.2163880441079</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H20" t="n">
-        <v>303.4508422388722</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I20" t="n">
-        <v>69.11834381539616</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J20" t="n">
-        <v>37.28507488358404</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K20" t="n">
-        <v>35.12399553673127</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L20" t="n">
-        <v>28.47824703393654</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M20" t="n">
-        <v>18.73185804160391</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N20" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>21.64722461951303</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P20" t="n">
-        <v>32.58945119244859</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.18035332317012</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R20" t="n">
-        <v>60.63953250900509</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S20" t="n">
-        <v>124.2523906577833</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T20" t="n">
-        <v>218.1256748333563</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24060,22 +24062,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.6930234561154</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H21" t="n">
-        <v>67.84558205340525</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I21" t="n">
-        <v>32.48451738197028</v>
+        <v>30.71419023103866</v>
       </c>
       <c r="J21" t="n">
-        <v>29.90494529109833</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K21" t="n">
-        <v>19.13988639553256</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L21" t="n">
-        <v>6.785808794917678</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24084,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>10.87667177962184</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.69225648436267</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R21" t="n">
-        <v>44.89460795773296</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S21" t="n">
-        <v>102.6901904232857</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T21" t="n">
-        <v>156.8327176907766</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3623561674602</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -24139,49 +24141,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.3874202901603</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H22" t="n">
-        <v>146.4179569850202</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I22" t="n">
-        <v>109.4547270939081</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J22" t="n">
-        <v>37.96713772285098</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K22" t="n">
-        <v>30.12158188642509</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L22" t="n">
-        <v>26.31106434786214</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M22" t="n">
-        <v>26.40839431103658</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N22" t="n">
-        <v>22.56601930391407</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O22" t="n">
-        <v>29.15327125498115</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P22" t="n">
-        <v>32.74373904234409</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.41052227552</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R22" t="n">
-        <v>75.85590789965747</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S22" t="n">
-        <v>181.2085322879926</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T22" t="n">
-        <v>236.3394386278895</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24218,49 +24220,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.2163880441079</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H23" t="n">
-        <v>303.4508422388722</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I23" t="n">
-        <v>69.11834381539616</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J23" t="n">
-        <v>37.28507488358404</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K23" t="n">
-        <v>35.12399553673127</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L23" t="n">
-        <v>28.47824703393654</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M23" t="n">
-        <v>18.73185804160391</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N23" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>21.64722461951303</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P23" t="n">
-        <v>32.58945119244859</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.18035332317012</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R23" t="n">
-        <v>60.63953250900509</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S23" t="n">
-        <v>124.2523906577833</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T23" t="n">
-        <v>218.1256748333563</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U23" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24297,22 +24299,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>105.6930234561154</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H24" t="n">
-        <v>67.84558205340525</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I24" t="n">
-        <v>32.48451738197028</v>
+        <v>30.71419023103866</v>
       </c>
       <c r="J24" t="n">
-        <v>29.90494529109833</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K24" t="n">
-        <v>19.13988639553256</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L24" t="n">
-        <v>6.785808794917678</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24321,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>10.87667177962184</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.69225648436267</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R24" t="n">
-        <v>44.89460795773296</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S24" t="n">
-        <v>102.6901904232857</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T24" t="n">
-        <v>156.8327176907766</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3623561674602</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
@@ -24376,49 +24378,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.3874202901603</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H25" t="n">
-        <v>146.4179569850202</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I25" t="n">
-        <v>109.4547270939081</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J25" t="n">
-        <v>37.96713772285098</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K25" t="n">
-        <v>30.12158188642509</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L25" t="n">
-        <v>26.31106434786214</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M25" t="n">
-        <v>26.40839431103658</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N25" t="n">
-        <v>22.56601930391407</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O25" t="n">
-        <v>29.15327125498115</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P25" t="n">
-        <v>32.74373904234409</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.41052227552</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R25" t="n">
-        <v>75.85590789965747</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S25" t="n">
-        <v>181.2085322879926</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T25" t="n">
-        <v>236.3394386278895</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24455,49 +24457,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.2163880441079</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H26" t="n">
-        <v>303.4508422388722</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I26" t="n">
-        <v>69.11834381539616</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J26" t="n">
-        <v>37.28507488358404</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K26" t="n">
-        <v>35.12399553673127</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L26" t="n">
-        <v>28.47824703393654</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M26" t="n">
-        <v>18.73185804160391</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N26" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>21.64722461951303</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P26" t="n">
-        <v>32.58945119244859</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q26" t="n">
-        <v>44.18035332317012</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R26" t="n">
-        <v>60.63953250900509</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S26" t="n">
-        <v>124.2523906577833</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T26" t="n">
-        <v>218.1256748333563</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U26" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24534,22 +24536,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>105.6930234561154</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H27" t="n">
-        <v>67.84558205340525</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I27" t="n">
-        <v>32.48451738197028</v>
+        <v>30.71419023103866</v>
       </c>
       <c r="J27" t="n">
-        <v>29.90494529109833</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K27" t="n">
-        <v>19.13988639553256</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L27" t="n">
-        <v>6.785808794917678</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24558,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>10.87667177962184</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.69225648436267</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R27" t="n">
-        <v>44.89460795773296</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S27" t="n">
-        <v>102.6901904232857</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T27" t="n">
-        <v>156.8327176907766</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3623561674602</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -24613,49 +24615,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.3874202901603</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H28" t="n">
-        <v>146.4179569850202</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I28" t="n">
-        <v>109.4547270939081</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J28" t="n">
-        <v>37.96713772285098</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K28" t="n">
-        <v>30.12158188642509</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L28" t="n">
-        <v>26.31106434786214</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M28" t="n">
-        <v>26.40839431103658</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N28" t="n">
-        <v>22.56601930391407</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O28" t="n">
-        <v>29.15327125498115</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P28" t="n">
-        <v>32.74373904234409</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.41052227552</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R28" t="n">
-        <v>75.85590789965747</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S28" t="n">
-        <v>181.2085322879926</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T28" t="n">
-        <v>236.3394386278895</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24692,49 +24694,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.2163880441079</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H29" t="n">
-        <v>303.4508422388722</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I29" t="n">
-        <v>69.11834381539616</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J29" t="n">
-        <v>37.28507488358404</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K29" t="n">
-        <v>35.12399553673127</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L29" t="n">
-        <v>28.47824703393654</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M29" t="n">
-        <v>18.73185804160391</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N29" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>21.64722461951303</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P29" t="n">
-        <v>32.58945119244859</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q29" t="n">
-        <v>44.18035332317012</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R29" t="n">
-        <v>60.63953250900509</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S29" t="n">
-        <v>124.2523906577833</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T29" t="n">
-        <v>218.1256748333563</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U29" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24771,22 +24773,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.6930234561154</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H30" t="n">
-        <v>67.84558205340525</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I30" t="n">
-        <v>32.48451738197028</v>
+        <v>30.71419023103866</v>
       </c>
       <c r="J30" t="n">
-        <v>29.90494529109833</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K30" t="n">
-        <v>19.13988639553256</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L30" t="n">
-        <v>6.785808794917678</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24795,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>10.87667177962184</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.69225648436267</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R30" t="n">
-        <v>44.89460795773296</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S30" t="n">
-        <v>102.6901904232857</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T30" t="n">
-        <v>156.8327176907766</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3623561674602</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -24850,49 +24852,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.3874202901603</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H31" t="n">
-        <v>146.4179569850202</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I31" t="n">
-        <v>109.4547270939081</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J31" t="n">
-        <v>37.96713772285098</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K31" t="n">
-        <v>30.12158188642509</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L31" t="n">
-        <v>26.31106434786214</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M31" t="n">
-        <v>26.40839431103658</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N31" t="n">
-        <v>22.56601930391407</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O31" t="n">
-        <v>29.15327125498115</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P31" t="n">
-        <v>32.74373904234409</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.41052227552</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R31" t="n">
-        <v>75.85590789965747</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S31" t="n">
-        <v>181.2085322879926</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T31" t="n">
-        <v>236.3394386278895</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24929,49 +24931,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.2163880441079</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H32" t="n">
-        <v>303.4508422388722</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I32" t="n">
-        <v>69.11834381539616</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J32" t="n">
-        <v>37.28507488358404</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K32" t="n">
-        <v>35.12399553673127</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L32" t="n">
-        <v>28.47824703393654</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M32" t="n">
-        <v>18.73185804160391</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N32" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>21.64722461951303</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P32" t="n">
-        <v>32.58945119244859</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q32" t="n">
-        <v>44.18035332317012</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R32" t="n">
-        <v>60.63953250900509</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S32" t="n">
-        <v>124.2523906577833</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T32" t="n">
-        <v>218.1256748333563</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U32" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -25008,22 +25010,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>105.6930234561154</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H33" t="n">
-        <v>67.84558205340525</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I33" t="n">
-        <v>32.48451738197028</v>
+        <v>30.71419023103866</v>
       </c>
       <c r="J33" t="n">
-        <v>29.90494529109833</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K33" t="n">
-        <v>19.13988639553256</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L33" t="n">
-        <v>6.785808794917678</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25032,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>10.87667177962184</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.69225648436267</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R33" t="n">
-        <v>44.89460795773296</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S33" t="n">
-        <v>102.6901904232857</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T33" t="n">
-        <v>156.8327176907766</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3623561674602</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -25087,49 +25089,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.3874202901603</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H34" t="n">
-        <v>146.4179569850202</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I34" t="n">
-        <v>109.4547270939081</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J34" t="n">
-        <v>37.96713772285098</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K34" t="n">
-        <v>30.12158188642509</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L34" t="n">
-        <v>26.31106434786214</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M34" t="n">
-        <v>26.40839431103658</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N34" t="n">
-        <v>22.56601930391407</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O34" t="n">
-        <v>29.15327125498115</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P34" t="n">
-        <v>32.74373904234409</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q34" t="n">
-        <v>45.41052227552</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R34" t="n">
-        <v>75.85590789965747</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S34" t="n">
-        <v>181.2085322879926</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T34" t="n">
-        <v>236.3394386278895</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25166,49 +25168,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.2163880441079</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H35" t="n">
-        <v>303.4508422388722</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I35" t="n">
-        <v>69.11834381539616</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J35" t="n">
-        <v>37.28507488358404</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K35" t="n">
-        <v>35.12399553673127</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L35" t="n">
-        <v>28.47824703393654</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M35" t="n">
-        <v>18.73185804160391</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N35" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>21.64722461951303</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P35" t="n">
-        <v>32.58945119244859</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.18035332317012</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R35" t="n">
-        <v>60.63953250900509</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S35" t="n">
-        <v>124.2523906577833</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T35" t="n">
-        <v>218.1256748333563</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25245,22 +25247,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.6930234561154</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H36" t="n">
-        <v>67.84558205340525</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I36" t="n">
-        <v>32.48451738197028</v>
+        <v>30.71419023103866</v>
       </c>
       <c r="J36" t="n">
-        <v>29.90494529109833</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K36" t="n">
-        <v>19.13988639553256</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L36" t="n">
-        <v>6.785808794917678</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25269,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>10.87667177962184</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.69225648436267</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R36" t="n">
-        <v>44.89460795773296</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S36" t="n">
-        <v>102.6901904232857</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T36" t="n">
-        <v>156.8327176907766</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3623561674602</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -25324,49 +25326,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.3874202901603</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H37" t="n">
-        <v>146.4179569850202</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I37" t="n">
-        <v>109.4547270939081</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J37" t="n">
-        <v>37.96713772285098</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K37" t="n">
-        <v>30.12158188642509</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L37" t="n">
-        <v>26.31106434786214</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M37" t="n">
-        <v>26.40839431103658</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N37" t="n">
-        <v>22.56601930391407</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O37" t="n">
-        <v>29.15327125498115</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P37" t="n">
-        <v>32.74373904234409</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.41052227552</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R37" t="n">
-        <v>75.85590789965747</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2085322879926</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T37" t="n">
-        <v>236.3394386278895</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25403,49 +25405,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.2163880441079</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H38" t="n">
-        <v>303.4508422388722</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I38" t="n">
-        <v>69.11834381539616</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J38" t="n">
-        <v>37.28507488358404</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K38" t="n">
-        <v>35.12399553673127</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L38" t="n">
-        <v>28.47824703393654</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M38" t="n">
-        <v>18.73185804160391</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N38" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>21.64722461951303</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P38" t="n">
-        <v>32.58945119244859</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.18035332317012</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R38" t="n">
-        <v>60.63953250900509</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S38" t="n">
-        <v>124.2523906577833</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T38" t="n">
-        <v>218.1256748333563</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25482,22 +25484,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.6930234561154</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H39" t="n">
-        <v>67.84558205340525</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I39" t="n">
-        <v>32.48451738197028</v>
+        <v>30.71419023103866</v>
       </c>
       <c r="J39" t="n">
-        <v>29.90494529109833</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K39" t="n">
-        <v>19.13988639553256</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L39" t="n">
-        <v>6.785808794917678</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25506,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>10.87667177962184</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.69225648436267</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R39" t="n">
-        <v>44.89460795773296</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S39" t="n">
-        <v>102.6901904232857</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T39" t="n">
-        <v>156.8327176907766</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3623561674602</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -25561,49 +25563,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.3874202901603</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H40" t="n">
-        <v>146.4179569850202</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I40" t="n">
-        <v>109.4547270939081</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J40" t="n">
-        <v>37.96713772285098</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K40" t="n">
-        <v>30.12158188642509</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L40" t="n">
-        <v>26.31106434786214</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M40" t="n">
-        <v>26.40839431103658</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N40" t="n">
-        <v>22.56601930391407</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O40" t="n">
-        <v>29.15327125498115</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P40" t="n">
-        <v>32.74373904234409</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.41052227552</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R40" t="n">
-        <v>75.85590789965747</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S40" t="n">
-        <v>181.2085322879926</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T40" t="n">
-        <v>236.3394386278895</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25640,49 +25642,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.2163880441079</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H41" t="n">
-        <v>303.4508422388722</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I41" t="n">
-        <v>69.11834381539616</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J41" t="n">
-        <v>37.28507488358404</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K41" t="n">
-        <v>35.12399553673127</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L41" t="n">
-        <v>28.47824703393654</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M41" t="n">
-        <v>18.73185804160391</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N41" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>21.64722461951303</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P41" t="n">
-        <v>32.58945119244859</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.18035332317012</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R41" t="n">
-        <v>60.63953250900509</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S41" t="n">
-        <v>124.2523906577833</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T41" t="n">
-        <v>218.1256748333563</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25719,22 +25721,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>105.6930234561154</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H42" t="n">
-        <v>67.84558205340525</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I42" t="n">
-        <v>32.48451738197028</v>
+        <v>30.71419023103866</v>
       </c>
       <c r="J42" t="n">
-        <v>29.90494529109833</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K42" t="n">
-        <v>19.13988639553256</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L42" t="n">
-        <v>6.785808794917685</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25743,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>10.87667177962185</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.69225648436268</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R42" t="n">
-        <v>44.89460795773296</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S42" t="n">
-        <v>102.6901904232857</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T42" t="n">
-        <v>156.8327176907766</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3623561674602</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -25798,49 +25800,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.3874202901603</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H43" t="n">
-        <v>146.4179569850202</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I43" t="n">
-        <v>109.4547270939081</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J43" t="n">
-        <v>37.96713772285098</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K43" t="n">
-        <v>30.12158188642509</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L43" t="n">
-        <v>26.31106434786214</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M43" t="n">
-        <v>26.40839431103658</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N43" t="n">
-        <v>22.56601930391407</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O43" t="n">
-        <v>29.15327125498115</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P43" t="n">
-        <v>32.74373904234409</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.41052227552</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R43" t="n">
-        <v>75.85590789965747</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S43" t="n">
-        <v>181.2085322879926</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T43" t="n">
-        <v>236.3394386278895</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25877,49 +25879,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.2163880441079</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H44" t="n">
-        <v>303.4508422388722</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I44" t="n">
-        <v>69.11834381539616</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J44" t="n">
-        <v>37.28507488358404</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K44" t="n">
-        <v>35.12399553673127</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L44" t="n">
-        <v>28.47824703393654</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M44" t="n">
-        <v>18.73185804160391</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N44" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>21.64722461951303</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P44" t="n">
-        <v>32.58945119244859</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.18035332317012</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R44" t="n">
-        <v>60.63953250900509</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S44" t="n">
-        <v>124.2523906577833</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T44" t="n">
-        <v>218.1256748333563</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25956,22 +25958,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.6930234561154</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H45" t="n">
-        <v>67.84558205340525</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I45" t="n">
-        <v>32.48451738197028</v>
+        <v>30.71419023103866</v>
       </c>
       <c r="J45" t="n">
-        <v>29.90494529109833</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K45" t="n">
-        <v>19.13988639553256</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L45" t="n">
-        <v>6.785808794917678</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25980,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>10.87667177962184</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.69225648436267</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R45" t="n">
-        <v>44.89460795773296</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S45" t="n">
-        <v>102.6901904232857</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T45" t="n">
-        <v>156.8327176907766</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3623561674602</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26035,49 +26037,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.3874202901603</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H46" t="n">
-        <v>146.4179569850202</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I46" t="n">
-        <v>109.4547270939081</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J46" t="n">
-        <v>37.96713772285098</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K46" t="n">
-        <v>30.12158188642509</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L46" t="n">
-        <v>26.31106434786214</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M46" t="n">
-        <v>26.40839431103658</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N46" t="n">
-        <v>22.56601930391407</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O46" t="n">
-        <v>29.15327125498115</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P46" t="n">
-        <v>32.74373904234409</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.41052227552</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R46" t="n">
-        <v>75.85590789965747</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S46" t="n">
-        <v>181.2085322879926</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T46" t="n">
-        <v>236.3394386278895</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>98033.04607048254</v>
+        <v>117764.4969196666</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>98033.04607048254</v>
+        <v>117764.4969196666</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>98033.04607048254</v>
+        <v>117764.4969196666</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98033.04607048254</v>
+        <v>117764.4969196666</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>98033.04607048254</v>
+        <v>117764.4969196666</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>98033.04607048254</v>
+        <v>117764.4969196666</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98033.04607048254</v>
+        <v>117764.4969196666</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98033.04607048254</v>
+        <v>117764.4969196666</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98033.04607048254</v>
+        <v>117764.4969196666</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98033.04607048254</v>
+        <v>117764.4969196666</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98033.04607048254</v>
+        <v>117764.4969196666</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>98033.04607048254</v>
+        <v>117764.4969196666</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14463.89204318594</v>
+        <v>17375.08970945901</v>
       </c>
       <c r="F2" t="n">
-        <v>14463.89204318594</v>
+        <v>17375.08970945901</v>
       </c>
       <c r="G2" t="n">
-        <v>14463.89204318594</v>
+        <v>17375.08970945901</v>
       </c>
       <c r="H2" t="n">
-        <v>14463.89204318594</v>
+        <v>17375.08970945901</v>
       </c>
       <c r="I2" t="n">
-        <v>14463.89204318594</v>
+        <v>17375.08970945901</v>
       </c>
       <c r="J2" t="n">
-        <v>14463.89204318594</v>
+        <v>17375.08970945901</v>
       </c>
       <c r="K2" t="n">
-        <v>14463.89204318594</v>
+        <v>17375.08970945901</v>
       </c>
       <c r="L2" t="n">
-        <v>14463.89204318594</v>
+        <v>17375.08970945901</v>
       </c>
       <c r="M2" t="n">
-        <v>14463.89204318594</v>
+        <v>17375.08970945901</v>
       </c>
       <c r="N2" t="n">
-        <v>14463.89204318594</v>
+        <v>17375.089709459</v>
       </c>
       <c r="O2" t="n">
-        <v>14463.89204318594</v>
+        <v>17375.08970945901</v>
       </c>
       <c r="P2" t="n">
-        <v>14463.89204318594</v>
+        <v>17375.08970945901</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>84857.46467577208</v>
+        <v>104062.8571940181</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2302.571349536697</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="F5" t="n">
-        <v>2302.571349536697</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="G5" t="n">
-        <v>2302.571349536697</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="H5" t="n">
-        <v>2302.571349536697</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="I5" t="n">
-        <v>2302.571349536697</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="J5" t="n">
-        <v>2302.571349536697</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="K5" t="n">
-        <v>2302.571349536697</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="L5" t="n">
-        <v>2302.571349536697</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="M5" t="n">
-        <v>2302.571349536697</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="N5" t="n">
-        <v>2302.571349536697</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="O5" t="n">
-        <v>2302.571349536697</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="P5" t="n">
-        <v>2302.571349536697</v>
+        <v>2823.701538119219</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-72696.14398212284</v>
+        <v>-89511.46902267831</v>
       </c>
       <c r="F6" t="n">
-        <v>12161.32069364924</v>
+        <v>14551.38817133979</v>
       </c>
       <c r="G6" t="n">
-        <v>12161.32069364924</v>
+        <v>14551.38817133979</v>
       </c>
       <c r="H6" t="n">
-        <v>12161.32069364924</v>
+        <v>14551.38817133979</v>
       </c>
       <c r="I6" t="n">
-        <v>12161.32069364924</v>
+        <v>14551.38817133979</v>
       </c>
       <c r="J6" t="n">
-        <v>12161.32069364924</v>
+        <v>14551.38817133979</v>
       </c>
       <c r="K6" t="n">
-        <v>12161.32069364924</v>
+        <v>14551.38817133979</v>
       </c>
       <c r="L6" t="n">
-        <v>12161.32069364924</v>
+        <v>14551.38817133979</v>
       </c>
       <c r="M6" t="n">
-        <v>12161.32069364924</v>
+        <v>14551.38817133979</v>
       </c>
       <c r="N6" t="n">
-        <v>12161.32069364924</v>
+        <v>14551.38817133979</v>
       </c>
       <c r="O6" t="n">
-        <v>12161.32069364924</v>
+        <v>14551.38817133979</v>
       </c>
       <c r="P6" t="n">
-        <v>12161.32069364924</v>
+        <v>14551.38817133979</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>105.6225389695733</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="F3" t="n">
-        <v>105.6225389695733</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="G3" t="n">
-        <v>105.6225389695733</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6225389695733</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="I3" t="n">
-        <v>105.6225389695733</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="J3" t="n">
-        <v>105.6225389695733</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="K3" t="n">
-        <v>105.6225389695733</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="L3" t="n">
-        <v>105.6225389695733</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="M3" t="n">
-        <v>105.6225389695733</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="N3" t="n">
-        <v>105.6225389695733</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="O3" t="n">
-        <v>105.6225389695733</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="P3" t="n">
-        <v>105.6225389695733</v>
+        <v>129.5275934917073</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>105.6225389695733</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H11" t="n">
-        <v>4.348570159687002</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I11" t="n">
-        <v>16.36990124070141</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J11" t="n">
-        <v>36.0385164497239</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K11" t="n">
-        <v>54.01239413648585</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L11" t="n">
-        <v>67.00715102890828</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M11" t="n">
-        <v>74.55836641544154</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N11" t="n">
-        <v>75.76479873241561</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O11" t="n">
-        <v>71.5425510062701</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P11" t="n">
-        <v>61.05991208843557</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.85345107598193</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R11" t="n">
-        <v>26.67261030571842</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S11" t="n">
-        <v>9.675873796056891</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T11" t="n">
-        <v>1.858744379253495</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H12" t="n">
-        <v>2.194158781235853</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I12" t="n">
-        <v>7.82204651802972</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J12" t="n">
-        <v>21.46429350890168</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K12" t="n">
-        <v>36.68589638908283</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L12" t="n">
-        <v>49.32871501593137</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -31853,25 +31855,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>54.05382897624944</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>43.3829632231819</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.00036202047605</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R12" t="n">
-        <v>14.10559114767245</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S12" t="n">
-        <v>4.219919363548514</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9157274840852623</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H13" t="n">
-        <v>1.693423657577749</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I13" t="n">
-        <v>5.727858342808991</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J13" t="n">
-        <v>13.46600796010445</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K13" t="n">
-        <v>22.12878767264174</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L13" t="n">
-        <v>28.31722954603937</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M13" t="n">
-        <v>29.85654818774347</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N13" t="n">
-        <v>29.14662620450537</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92162681801517</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P13" t="n">
-        <v>23.03610259756069</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.94900338440556</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R13" t="n">
-        <v>8.564083241696872</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S13" t="n">
-        <v>3.31931815089626</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H14" t="n">
-        <v>4.348570159687002</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I14" t="n">
-        <v>16.36990124070141</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J14" t="n">
-        <v>36.0385164497239</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K14" t="n">
-        <v>54.01239413648585</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L14" t="n">
-        <v>67.00715102890828</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M14" t="n">
-        <v>74.55836641544154</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N14" t="n">
-        <v>75.76479873241561</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O14" t="n">
-        <v>71.5425510062701</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P14" t="n">
-        <v>61.05991208843557</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.85345107598193</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R14" t="n">
-        <v>26.67261030571842</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S14" t="n">
-        <v>9.675873796056891</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T14" t="n">
-        <v>1.858744379253495</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H15" t="n">
-        <v>2.194158781235853</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I15" t="n">
-        <v>7.82204651802972</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J15" t="n">
-        <v>21.46429350890168</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K15" t="n">
-        <v>36.68589638908283</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32871501593137</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -32090,25 +32092,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>54.05382897624944</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>43.3829632231819</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.00036202047605</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R15" t="n">
-        <v>14.10559114767245</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S15" t="n">
-        <v>4.219919363548514</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9157274840852623</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H16" t="n">
-        <v>1.693423657577749</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I16" t="n">
-        <v>5.727858342808991</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J16" t="n">
-        <v>13.46600796010445</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K16" t="n">
-        <v>22.12878767264174</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L16" t="n">
-        <v>28.31722954603937</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M16" t="n">
-        <v>29.85654818774347</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N16" t="n">
-        <v>29.14662620450537</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92162681801517</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P16" t="n">
-        <v>23.03610259756069</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.94900338440556</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R16" t="n">
-        <v>8.564083241696872</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S16" t="n">
-        <v>3.31931815089626</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H17" t="n">
-        <v>4.348570159687002</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I17" t="n">
-        <v>16.36990124070141</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J17" t="n">
-        <v>36.0385164497239</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K17" t="n">
-        <v>54.01239413648585</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L17" t="n">
-        <v>67.00715102890828</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M17" t="n">
-        <v>74.55836641544154</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N17" t="n">
-        <v>75.76479873241561</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O17" t="n">
-        <v>71.5425510062701</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P17" t="n">
-        <v>61.05991208843557</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.85345107598193</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R17" t="n">
-        <v>26.67261030571842</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S17" t="n">
-        <v>9.675873796056891</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T17" t="n">
-        <v>1.858744379253495</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H18" t="n">
-        <v>2.194158781235853</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I18" t="n">
-        <v>7.82204651802972</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J18" t="n">
-        <v>21.46429350890168</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K18" t="n">
-        <v>36.68589638908283</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L18" t="n">
-        <v>49.32871501593137</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -32327,25 +32329,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>54.05382897624944</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>43.3829632231819</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.00036202047605</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R18" t="n">
-        <v>14.10559114767245</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S18" t="n">
-        <v>4.219919363548514</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9157274840852623</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H19" t="n">
-        <v>1.693423657577749</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I19" t="n">
-        <v>5.727858342808991</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J19" t="n">
-        <v>13.46600796010445</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K19" t="n">
-        <v>22.12878767264174</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L19" t="n">
-        <v>28.31722954603937</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M19" t="n">
-        <v>29.85654818774347</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N19" t="n">
-        <v>29.14662620450537</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O19" t="n">
-        <v>26.92162681801517</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P19" t="n">
-        <v>23.03610259756069</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.94900338440556</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R19" t="n">
-        <v>8.564083241696872</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S19" t="n">
-        <v>3.31931815089626</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H20" t="n">
-        <v>4.348570159687002</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I20" t="n">
-        <v>16.36990124070141</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J20" t="n">
-        <v>36.0385164497239</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K20" t="n">
-        <v>54.01239413648585</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L20" t="n">
-        <v>67.00715102890828</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M20" t="n">
-        <v>74.55836641544154</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N20" t="n">
-        <v>75.76479873241561</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O20" t="n">
-        <v>71.5425510062701</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P20" t="n">
-        <v>61.05991208843557</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.85345107598193</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R20" t="n">
-        <v>26.67261030571842</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S20" t="n">
-        <v>9.675873796056891</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T20" t="n">
-        <v>1.858744379253495</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H21" t="n">
-        <v>2.194158781235853</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I21" t="n">
-        <v>7.82204651802972</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J21" t="n">
-        <v>21.46429350890168</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K21" t="n">
-        <v>36.68589638908283</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L21" t="n">
-        <v>49.32871501593137</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
@@ -32564,25 +32566,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>54.05382897624944</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>43.3829632231819</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.00036202047605</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R21" t="n">
-        <v>14.10559114767245</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S21" t="n">
-        <v>4.219919363548514</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9157274840852623</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H22" t="n">
-        <v>1.693423657577749</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I22" t="n">
-        <v>5.727858342808991</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J22" t="n">
-        <v>13.46600796010445</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K22" t="n">
-        <v>22.12878767264174</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L22" t="n">
-        <v>28.31722954603937</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M22" t="n">
-        <v>29.85654818774347</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N22" t="n">
-        <v>29.14662620450537</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O22" t="n">
-        <v>26.92162681801517</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P22" t="n">
-        <v>23.03610259756069</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.94900338440556</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R22" t="n">
-        <v>8.564083241696872</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S22" t="n">
-        <v>3.31931815089626</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H23" t="n">
-        <v>4.348570159687002</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I23" t="n">
-        <v>16.36990124070141</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J23" t="n">
-        <v>36.0385164497239</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K23" t="n">
-        <v>54.01239413648585</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L23" t="n">
-        <v>67.00715102890828</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M23" t="n">
-        <v>74.55836641544154</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N23" t="n">
-        <v>75.76479873241561</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O23" t="n">
-        <v>71.5425510062701</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P23" t="n">
-        <v>61.05991208843557</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.85345107598193</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R23" t="n">
-        <v>26.67261030571842</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S23" t="n">
-        <v>9.675873796056891</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T23" t="n">
-        <v>1.858744379253495</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H24" t="n">
-        <v>2.194158781235853</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I24" t="n">
-        <v>7.82204651802972</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J24" t="n">
-        <v>21.46429350890168</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K24" t="n">
-        <v>36.68589638908283</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L24" t="n">
-        <v>49.32871501593137</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
@@ -32801,25 +32803,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>54.05382897624944</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>43.3829632231819</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.00036202047605</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R24" t="n">
-        <v>14.10559114767245</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S24" t="n">
-        <v>4.219919363548514</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9157274840852623</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H25" t="n">
-        <v>1.693423657577749</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I25" t="n">
-        <v>5.727858342808991</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J25" t="n">
-        <v>13.46600796010445</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K25" t="n">
-        <v>22.12878767264174</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L25" t="n">
-        <v>28.31722954603937</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M25" t="n">
-        <v>29.85654818774347</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N25" t="n">
-        <v>29.14662620450537</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O25" t="n">
-        <v>26.92162681801517</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P25" t="n">
-        <v>23.03610259756069</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.94900338440556</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R25" t="n">
-        <v>8.564083241696872</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S25" t="n">
-        <v>3.31931815089626</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H26" t="n">
-        <v>4.348570159687002</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I26" t="n">
-        <v>16.36990124070141</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J26" t="n">
-        <v>36.0385164497239</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K26" t="n">
-        <v>54.01239413648585</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L26" t="n">
-        <v>67.00715102890828</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M26" t="n">
-        <v>74.55836641544154</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N26" t="n">
-        <v>75.76479873241561</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>71.5425510062701</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P26" t="n">
-        <v>61.05991208843557</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.85345107598193</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R26" t="n">
-        <v>26.67261030571842</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S26" t="n">
-        <v>9.675873796056891</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T26" t="n">
-        <v>1.858744379253495</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H27" t="n">
-        <v>2.194158781235853</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I27" t="n">
-        <v>7.82204651802972</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J27" t="n">
-        <v>21.46429350890168</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K27" t="n">
-        <v>36.68589638908283</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L27" t="n">
-        <v>49.32871501593137</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
@@ -33038,25 +33040,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>54.05382897624944</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>43.3829632231819</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.00036202047605</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R27" t="n">
-        <v>14.10559114767245</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S27" t="n">
-        <v>4.219919363548514</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9157274840852623</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H28" t="n">
-        <v>1.693423657577749</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I28" t="n">
-        <v>5.727858342808991</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J28" t="n">
-        <v>13.46600796010445</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K28" t="n">
-        <v>22.12878767264174</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L28" t="n">
-        <v>28.31722954603937</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M28" t="n">
-        <v>29.85654818774347</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N28" t="n">
-        <v>29.14662620450537</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O28" t="n">
-        <v>26.92162681801517</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P28" t="n">
-        <v>23.03610259756069</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.94900338440556</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R28" t="n">
-        <v>8.564083241696872</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S28" t="n">
-        <v>3.31931815089626</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H29" t="n">
-        <v>4.348570159687002</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I29" t="n">
-        <v>16.36990124070141</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J29" t="n">
-        <v>36.0385164497239</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K29" t="n">
-        <v>54.01239413648585</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L29" t="n">
-        <v>67.00715102890828</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M29" t="n">
-        <v>74.55836641544154</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N29" t="n">
-        <v>75.76479873241561</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>71.5425510062701</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P29" t="n">
-        <v>61.05991208843557</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.85345107598193</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R29" t="n">
-        <v>26.67261030571842</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S29" t="n">
-        <v>9.675873796056891</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T29" t="n">
-        <v>1.858744379253495</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H30" t="n">
-        <v>2.194158781235853</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I30" t="n">
-        <v>7.82204651802972</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J30" t="n">
-        <v>21.46429350890168</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K30" t="n">
-        <v>36.68589638908283</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L30" t="n">
-        <v>49.32871501593137</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -33275,25 +33277,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>54.05382897624944</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>43.3829632231819</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.00036202047605</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R30" t="n">
-        <v>14.10559114767245</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S30" t="n">
-        <v>4.219919363548514</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9157274840852623</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H31" t="n">
-        <v>1.693423657577749</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I31" t="n">
-        <v>5.727858342808991</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J31" t="n">
-        <v>13.46600796010445</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K31" t="n">
-        <v>22.12878767264174</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L31" t="n">
-        <v>28.31722954603937</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M31" t="n">
-        <v>29.85654818774347</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N31" t="n">
-        <v>29.14662620450537</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O31" t="n">
-        <v>26.92162681801517</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P31" t="n">
-        <v>23.03610259756069</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.94900338440556</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R31" t="n">
-        <v>8.564083241696872</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S31" t="n">
-        <v>3.31931815089626</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H32" t="n">
-        <v>4.348570159687002</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I32" t="n">
-        <v>16.36990124070141</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J32" t="n">
-        <v>36.0385164497239</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K32" t="n">
-        <v>54.01239413648585</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L32" t="n">
-        <v>67.00715102890828</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M32" t="n">
-        <v>74.55836641544154</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N32" t="n">
-        <v>75.76479873241561</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O32" t="n">
-        <v>71.5425510062701</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P32" t="n">
-        <v>61.05991208843557</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.85345107598193</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R32" t="n">
-        <v>26.67261030571842</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S32" t="n">
-        <v>9.675873796056891</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T32" t="n">
-        <v>1.858744379253495</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H33" t="n">
-        <v>2.194158781235853</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I33" t="n">
-        <v>7.82204651802972</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J33" t="n">
-        <v>21.46429350890168</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K33" t="n">
-        <v>36.68589638908283</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L33" t="n">
-        <v>49.32871501593137</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -33512,25 +33514,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>54.05382897624944</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>43.3829632231819</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.00036202047605</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R33" t="n">
-        <v>14.10559114767245</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S33" t="n">
-        <v>4.219919363548514</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9157274840852623</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H34" t="n">
-        <v>1.693423657577749</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I34" t="n">
-        <v>5.727858342808991</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J34" t="n">
-        <v>13.46600796010445</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K34" t="n">
-        <v>22.12878767264174</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L34" t="n">
-        <v>28.31722954603937</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M34" t="n">
-        <v>29.85654818774347</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N34" t="n">
-        <v>29.14662620450537</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O34" t="n">
-        <v>26.92162681801517</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P34" t="n">
-        <v>23.03610259756069</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.94900338440556</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R34" t="n">
-        <v>8.564083241696872</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S34" t="n">
-        <v>3.31931815089626</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H35" t="n">
-        <v>4.348570159687002</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I35" t="n">
-        <v>16.36990124070141</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J35" t="n">
-        <v>36.0385164497239</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K35" t="n">
-        <v>54.01239413648585</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L35" t="n">
-        <v>67.00715102890828</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M35" t="n">
-        <v>74.55836641544154</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N35" t="n">
-        <v>75.76479873241561</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>71.5425510062701</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P35" t="n">
-        <v>61.05991208843557</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.85345107598193</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R35" t="n">
-        <v>26.67261030571842</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S35" t="n">
-        <v>9.675873796056891</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T35" t="n">
-        <v>1.858744379253495</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H36" t="n">
-        <v>2.194158781235853</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I36" t="n">
-        <v>7.82204651802972</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J36" t="n">
-        <v>21.46429350890168</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K36" t="n">
-        <v>36.68589638908283</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L36" t="n">
-        <v>49.32871501593137</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -33749,25 +33751,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>54.05382897624944</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>43.3829632231819</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.00036202047605</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R36" t="n">
-        <v>14.10559114767245</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S36" t="n">
-        <v>4.219919363548514</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9157274840852623</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H37" t="n">
-        <v>1.693423657577749</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I37" t="n">
-        <v>5.727858342808991</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J37" t="n">
-        <v>13.46600796010445</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K37" t="n">
-        <v>22.12878767264174</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L37" t="n">
-        <v>28.31722954603937</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M37" t="n">
-        <v>29.85654818774347</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N37" t="n">
-        <v>29.14662620450537</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O37" t="n">
-        <v>26.92162681801517</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P37" t="n">
-        <v>23.03610259756069</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.94900338440556</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R37" t="n">
-        <v>8.564083241696872</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S37" t="n">
-        <v>3.31931815089626</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H38" t="n">
-        <v>4.348570159687002</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I38" t="n">
-        <v>16.36990124070141</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J38" t="n">
-        <v>36.0385164497239</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K38" t="n">
-        <v>54.01239413648585</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L38" t="n">
-        <v>67.00715102890828</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M38" t="n">
-        <v>74.55836641544154</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N38" t="n">
-        <v>75.76479873241561</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>71.5425510062701</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P38" t="n">
-        <v>61.05991208843557</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.85345107598193</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R38" t="n">
-        <v>26.67261030571842</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S38" t="n">
-        <v>9.675873796056891</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T38" t="n">
-        <v>1.858744379253495</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H39" t="n">
-        <v>2.194158781235853</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I39" t="n">
-        <v>7.82204651802972</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J39" t="n">
-        <v>21.46429350890168</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K39" t="n">
-        <v>36.68589638908283</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L39" t="n">
-        <v>49.32871501593137</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -33986,25 +33988,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>54.05382897624944</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>43.3829632231819</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.00036202047605</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R39" t="n">
-        <v>14.10559114767245</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S39" t="n">
-        <v>4.219919363548514</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9157274840852623</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H40" t="n">
-        <v>1.693423657577749</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I40" t="n">
-        <v>5.727858342808991</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J40" t="n">
-        <v>13.46600796010445</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K40" t="n">
-        <v>22.12878767264174</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L40" t="n">
-        <v>28.31722954603937</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M40" t="n">
-        <v>29.85654818774347</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N40" t="n">
-        <v>29.14662620450537</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O40" t="n">
-        <v>26.92162681801517</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P40" t="n">
-        <v>23.03610259756069</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.94900338440556</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R40" t="n">
-        <v>8.564083241696872</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S40" t="n">
-        <v>3.31931815089626</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H41" t="n">
-        <v>4.348570159687002</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I41" t="n">
-        <v>16.36990124070141</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J41" t="n">
-        <v>36.0385164497239</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K41" t="n">
-        <v>54.01239413648585</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L41" t="n">
-        <v>67.00715102890828</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M41" t="n">
-        <v>74.55836641544154</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N41" t="n">
-        <v>75.76479873241561</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O41" t="n">
-        <v>71.5425510062701</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P41" t="n">
-        <v>61.05991208843557</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.85345107598193</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R41" t="n">
-        <v>26.67261030571842</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S41" t="n">
-        <v>9.675873796056891</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T41" t="n">
-        <v>1.858744379253495</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H42" t="n">
-        <v>2.194158781235853</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I42" t="n">
-        <v>7.822046518029719</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J42" t="n">
-        <v>21.46429350890168</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K42" t="n">
-        <v>36.68589638908283</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L42" t="n">
-        <v>49.32871501593137</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -34223,25 +34225,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>54.05382897624944</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>43.3829632231819</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.00036202047604</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R42" t="n">
-        <v>14.10559114767245</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S42" t="n">
-        <v>4.219919363548515</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9157274840852623</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H43" t="n">
-        <v>1.693423657577749</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I43" t="n">
-        <v>5.72785834280899</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J43" t="n">
-        <v>13.46600796010445</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K43" t="n">
-        <v>22.12878767264174</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L43" t="n">
-        <v>28.31722954603936</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M43" t="n">
-        <v>29.85654818774346</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N43" t="n">
-        <v>29.14662620450537</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O43" t="n">
-        <v>26.92162681801517</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P43" t="n">
-        <v>23.03610259756069</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.94900338440556</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R43" t="n">
-        <v>8.564083241696872</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S43" t="n">
-        <v>3.31931815089626</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H44" t="n">
-        <v>4.348570159687002</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I44" t="n">
-        <v>16.36990124070141</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J44" t="n">
-        <v>36.0385164497239</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K44" t="n">
-        <v>54.01239413648585</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L44" t="n">
-        <v>67.00715102890828</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M44" t="n">
-        <v>74.55836641544154</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N44" t="n">
-        <v>75.76479873241561</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>71.5425510062701</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P44" t="n">
-        <v>61.05991208843557</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.85345107598193</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R44" t="n">
-        <v>26.67261030571842</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S44" t="n">
-        <v>9.675873796056891</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T44" t="n">
-        <v>1.858744379253495</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H45" t="n">
-        <v>2.194158781235853</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I45" t="n">
-        <v>7.82204651802972</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J45" t="n">
-        <v>21.46429350890168</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K45" t="n">
-        <v>36.68589638908283</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L45" t="n">
-        <v>49.32871501593137</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -34460,25 +34462,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>54.05382897624944</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>43.3829632231819</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.00036202047605</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R45" t="n">
-        <v>14.10559114767245</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S45" t="n">
-        <v>4.219919363548514</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9157274840852623</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H46" t="n">
-        <v>1.693423657577749</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I46" t="n">
-        <v>5.727858342808991</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J46" t="n">
-        <v>13.46600796010445</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K46" t="n">
-        <v>22.12878767264174</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L46" t="n">
-        <v>28.31722954603937</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M46" t="n">
-        <v>29.85654818774347</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N46" t="n">
-        <v>29.14662620450537</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O46" t="n">
-        <v>26.92162681801517</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P46" t="n">
-        <v>23.03610259756069</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.94900338440556</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R46" t="n">
-        <v>8.564083241696872</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S46" t="n">
-        <v>3.31931815089626</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-77500.65084387858</v>
+        <v>-90250.31716525556</v>
       </c>
     </row>
     <row r="7">
@@ -23281,13 +23281,13 @@
         <v>65.41342074217175</v>
       </c>
       <c r="J11" t="n">
-        <v>29.12864625545149</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K11" t="n">
-        <v>22.89962335916381</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L11" t="n">
-        <v>13.31283239473387</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M11" t="n">
         <v>1.857412192921856</v>
@@ -23296,10 +23296,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>5.455334146684052</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P11" t="n">
-        <v>18.77004728651482</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q11" t="n">
         <v>33.80255651301093</v>
@@ -23442,10 +23442,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K13" t="n">
-        <v>25.11327702096816</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L13" t="n">
-        <v>19.90215841909198</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M13" t="n">
         <v>19.6511016040668</v>
@@ -23518,13 +23518,13 @@
         <v>65.41342074217175</v>
       </c>
       <c r="J14" t="n">
-        <v>29.12864625545149</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K14" t="n">
-        <v>22.89962335916381</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L14" t="n">
-        <v>13.31283239473387</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M14" t="n">
         <v>1.857412192921856</v>
@@ -23533,10 +23533,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>5.455334146684052</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P14" t="n">
-        <v>18.77004728651482</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q14" t="n">
         <v>33.80255651301093</v>
@@ -23679,10 +23679,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K16" t="n">
-        <v>25.11327702096816</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L16" t="n">
-        <v>19.90215841909198</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M16" t="n">
         <v>19.6511016040668</v>
@@ -24940,13 +24940,13 @@
         <v>65.41342074217175</v>
       </c>
       <c r="J32" t="n">
-        <v>29.12864625545149</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K32" t="n">
-        <v>22.89962335916381</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L32" t="n">
-        <v>13.31283239473387</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M32" t="n">
         <v>1.857412192921856</v>
@@ -24955,10 +24955,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>5.455334146684052</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P32" t="n">
-        <v>18.77004728651482</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q32" t="n">
         <v>33.80255651301093</v>
@@ -25101,10 +25101,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K34" t="n">
-        <v>25.11327702096816</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L34" t="n">
-        <v>19.90215841909198</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M34" t="n">
         <v>19.6511016040668</v>
@@ -25177,13 +25177,13 @@
         <v>65.41342074217175</v>
       </c>
       <c r="J35" t="n">
-        <v>29.1286462554515</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K35" t="n">
-        <v>22.89962335916383</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L35" t="n">
-        <v>13.31283239473389</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M35" t="n">
         <v>1.857412192921856</v>
@@ -25192,10 +25192,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>5.455334146684066</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P35" t="n">
-        <v>18.77004728651484</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q35" t="n">
         <v>33.80255651301093</v>
@@ -25338,10 +25338,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K37" t="n">
-        <v>25.11327702096817</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L37" t="n">
-        <v>19.90215841909199</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M37" t="n">
         <v>19.6511016040668</v>
@@ -25414,13 +25414,13 @@
         <v>65.41342074217175</v>
       </c>
       <c r="J38" t="n">
-        <v>29.1286462554515</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K38" t="n">
-        <v>22.89962335916383</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L38" t="n">
-        <v>13.31283239473389</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M38" t="n">
         <v>1.857412192921856</v>
@@ -25429,10 +25429,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>5.455334146684066</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P38" t="n">
-        <v>18.77004728651484</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q38" t="n">
         <v>33.80255651301093</v>
@@ -25575,10 +25575,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K40" t="n">
-        <v>25.11327702096817</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L40" t="n">
-        <v>19.90215841909199</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M40" t="n">
         <v>19.6511016040668</v>
@@ -25651,13 +25651,13 @@
         <v>65.41342074217175</v>
       </c>
       <c r="J41" t="n">
-        <v>29.12864625545149</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K41" t="n">
-        <v>22.89962335916381</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L41" t="n">
-        <v>13.31283239473387</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M41" t="n">
         <v>1.857412192921856</v>
@@ -25666,10 +25666,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>5.455334146684052</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P41" t="n">
-        <v>18.77004728651482</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q41" t="n">
         <v>33.80255651301093</v>
@@ -25812,10 +25812,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K43" t="n">
-        <v>25.11327702096816</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L43" t="n">
-        <v>19.90215841909198</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M43" t="n">
         <v>19.6511016040668</v>
@@ -25888,13 +25888,13 @@
         <v>65.41342074217175</v>
       </c>
       <c r="J44" t="n">
-        <v>29.12864625545149</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K44" t="n">
-        <v>22.89962335916381</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L44" t="n">
-        <v>13.31283239473387</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M44" t="n">
         <v>1.857412192921856</v>
@@ -25903,10 +25903,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>5.455334146684052</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P44" t="n">
-        <v>18.77004728651482</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q44" t="n">
         <v>33.80255651301093</v>
@@ -26049,10 +26049,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K46" t="n">
-        <v>25.11327702096816</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L46" t="n">
-        <v>19.90215841909198</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M46" t="n">
         <v>19.6511016040668</v>
@@ -26328,16 +26328,16 @@
         <v>17375.08970945901</v>
       </c>
       <c r="G2" t="n">
-        <v>17375.08970945901</v>
+        <v>17375.089709459</v>
       </c>
       <c r="H2" t="n">
-        <v>17375.08970945901</v>
+        <v>17375.089709459</v>
       </c>
       <c r="I2" t="n">
-        <v>17375.08970945901</v>
+        <v>17375.089709459</v>
       </c>
       <c r="J2" t="n">
-        <v>17375.08970945901</v>
+        <v>17375.089709459</v>
       </c>
       <c r="K2" t="n">
         <v>17375.08970945901</v>
@@ -26349,7 +26349,7 @@
         <v>17375.08970945901</v>
       </c>
       <c r="N2" t="n">
-        <v>17375.089709459</v>
+        <v>17375.08970945901</v>
       </c>
       <c r="O2" t="n">
         <v>17375.08970945901</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-35256.42393032457</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-35256.42393032457</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-35256.42393032457</v>
       </c>
       <c r="E6" t="n">
-        <v>-89511.46902267831</v>
+        <v>-90947.23640067557</v>
       </c>
       <c r="F6" t="n">
-        <v>14551.38817133979</v>
+        <v>13115.62079334254</v>
       </c>
       <c r="G6" t="n">
-        <v>14551.38817133979</v>
+        <v>13115.62079334254</v>
       </c>
       <c r="H6" t="n">
-        <v>14551.38817133979</v>
+        <v>13115.62079334254</v>
       </c>
       <c r="I6" t="n">
-        <v>14551.38817133979</v>
+        <v>13115.62079334254</v>
       </c>
       <c r="J6" t="n">
-        <v>14551.38817133979</v>
+        <v>13115.62079334254</v>
       </c>
       <c r="K6" t="n">
-        <v>14551.38817133979</v>
+        <v>13115.62079334254</v>
       </c>
       <c r="L6" t="n">
-        <v>14551.38817133979</v>
+        <v>13115.62079334254</v>
       </c>
       <c r="M6" t="n">
-        <v>14551.38817133979</v>
+        <v>13115.62079334254</v>
       </c>
       <c r="N6" t="n">
-        <v>14551.38817133979</v>
+        <v>13115.62079334254</v>
       </c>
       <c r="O6" t="n">
-        <v>14551.38817133979</v>
+        <v>13115.62079334254</v>
       </c>
       <c r="P6" t="n">
-        <v>14551.38817133979</v>
+        <v>13115.62079334254</v>
       </c>
     </row>
   </sheetData>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H11" t="n">
-        <v>5.332761675766619</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I11" t="n">
         <v>20.07482431392581</v>
@@ -31764,25 +31764,25 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K11" t="n">
-        <v>66.23676631405331</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L11" t="n">
-        <v>82.17256566811095</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M11" t="n">
         <v>91.4328122641236</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>87.73444147909908</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P11" t="n">
-        <v>74.87931599436934</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.23124788614112</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R11" t="n">
         <v>32.70929726501893</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H12" t="n">
         <v>2.690752461025844</v>
@@ -31864,7 +31864,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R12" t="n">
-        <v>17.29804352328877</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S12" t="n">
         <v>5.174993947522452</v>
@@ -31873,7 +31873,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I13" t="n">
-        <v>7.024217692960128</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J13" t="n">
         <v>16.51370646860668</v>
@@ -31928,19 +31928,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M13" t="n">
-        <v>36.61384089471325</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N13" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O13" t="n">
-        <v>33.0146725181814</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P13" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.5586666172478</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R13" t="n">
         <v>10.50235208868826</v>
@@ -31949,7 +31949,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9979994908377442</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U13" t="n">
         <v>0.01274041903197122</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H14" t="n">
-        <v>5.332761675766619</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I14" t="n">
         <v>20.07482431392581</v>
@@ -32001,25 +32001,25 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K14" t="n">
-        <v>66.23676631405331</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L14" t="n">
-        <v>82.17256566811095</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M14" t="n">
         <v>91.4328122641236</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>87.73444147909908</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P14" t="n">
-        <v>74.87931599436934</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.23124788614112</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R14" t="n">
         <v>32.70929726501893</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H15" t="n">
         <v>2.690752461025844</v>
@@ -32101,7 +32101,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R15" t="n">
-        <v>17.29804352328877</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S15" t="n">
         <v>5.174993947522452</v>
@@ -32110,7 +32110,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I16" t="n">
-        <v>7.024217692960128</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J16" t="n">
         <v>16.51370646860668</v>
@@ -32165,19 +32165,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M16" t="n">
-        <v>36.61384089471325</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N16" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O16" t="n">
-        <v>33.0146725181814</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P16" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.5586666172478</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R16" t="n">
         <v>10.50235208868826</v>
@@ -32186,7 +32186,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9979994908377442</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U16" t="n">
         <v>0.01274041903197122</v>
@@ -32721,7 +32721,7 @@
         <v>91.4328122641236</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
         <v>87.73444147909908</v>
@@ -33195,7 +33195,7 @@
         <v>91.4328122641236</v>
       </c>
       <c r="N29" t="n">
-        <v>92.91229075661933</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O29" t="n">
         <v>87.73444147909908</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H32" t="n">
-        <v>5.332761675766619</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I32" t="n">
         <v>20.07482431392581</v>
@@ -33423,25 +33423,25 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K32" t="n">
-        <v>66.23676631405331</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L32" t="n">
-        <v>82.17256566811095</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M32" t="n">
         <v>91.4328122641236</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>87.73444147909908</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P32" t="n">
-        <v>74.87931599436934</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.23124788614112</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R32" t="n">
         <v>32.70929726501893</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H33" t="n">
         <v>2.690752461025844</v>
@@ -33523,7 +33523,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R33" t="n">
-        <v>17.29804352328877</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S33" t="n">
         <v>5.174993947522452</v>
@@ -33532,7 +33532,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I34" t="n">
-        <v>7.024217692960128</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J34" t="n">
         <v>16.51370646860668</v>
@@ -33587,19 +33587,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M34" t="n">
-        <v>36.61384089471325</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N34" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O34" t="n">
-        <v>33.0146725181814</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P34" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.5586666172478</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R34" t="n">
         <v>10.50235208868826</v>
@@ -33608,7 +33608,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9979994908377442</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U34" t="n">
         <v>0.01274041903197122</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5207139436852549</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H35" t="n">
-        <v>5.332761675766618</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I35" t="n">
         <v>20.07482431392581</v>
@@ -33660,25 +33660,25 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K35" t="n">
-        <v>66.2367663140533</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L35" t="n">
-        <v>82.17256566811093</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M35" t="n">
         <v>91.4328122641236</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O35" t="n">
-        <v>87.73444147909906</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P35" t="n">
-        <v>74.87931599436932</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.23124788614111</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R35" t="n">
         <v>32.70929726501893</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2786065218500873</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H36" t="n">
         <v>2.690752461025844</v>
@@ -33760,7 +33760,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R36" t="n">
-        <v>17.29804352328876</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S36" t="n">
         <v>5.174993947522452</v>
@@ -33769,7 +33769,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01832937643750575</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,7 +33812,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I37" t="n">
-        <v>7.024217692960127</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J37" t="n">
         <v>16.51370646860668</v>
@@ -33824,19 +33824,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M37" t="n">
-        <v>36.61384089471324</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N37" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O37" t="n">
-        <v>33.01467251818139</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P37" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.55866661724779</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R37" t="n">
         <v>10.50235208868826</v>
@@ -33845,7 +33845,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9979994908377441</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U37" t="n">
         <v>0.01274041903197122</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5207139436852549</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H38" t="n">
-        <v>5.332761675766618</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I38" t="n">
         <v>20.07482431392581</v>
@@ -33897,10 +33897,10 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K38" t="n">
-        <v>66.2367663140533</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L38" t="n">
-        <v>82.17256566811093</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M38" t="n">
         <v>91.4328122641236</v>
@@ -33909,13 +33909,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>87.73444147909906</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P38" t="n">
-        <v>74.87931599436932</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.23124788614111</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R38" t="n">
         <v>32.70929726501893</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2786065218500873</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H39" t="n">
         <v>2.690752461025844</v>
@@ -33997,7 +33997,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R39" t="n">
-        <v>17.29804352328876</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S39" t="n">
         <v>5.174993947522452</v>
@@ -34006,7 +34006,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01832937643750575</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,7 +34049,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I40" t="n">
-        <v>7.024217692960127</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J40" t="n">
         <v>16.51370646860668</v>
@@ -34061,19 +34061,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M40" t="n">
-        <v>36.61384089471324</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N40" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O40" t="n">
-        <v>33.01467251818139</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P40" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.55866661724779</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R40" t="n">
         <v>10.50235208868826</v>
@@ -34082,7 +34082,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9979994908377441</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U40" t="n">
         <v>0.01274041903197122</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H41" t="n">
-        <v>5.332761675766619</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I41" t="n">
         <v>20.07482431392581</v>
@@ -34134,25 +34134,25 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K41" t="n">
-        <v>66.23676631405331</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L41" t="n">
-        <v>82.17256566811095</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M41" t="n">
         <v>91.4328122641236</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>87.73444147909908</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P41" t="n">
-        <v>74.87931599436934</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.23124788614112</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R41" t="n">
         <v>32.70929726501893</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H42" t="n">
         <v>2.690752461025844</v>
@@ -34234,7 +34234,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R42" t="n">
-        <v>17.29804352328877</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S42" t="n">
         <v>5.174993947522452</v>
@@ -34243,7 +34243,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,7 +34286,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I43" t="n">
-        <v>7.024217692960128</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J43" t="n">
         <v>16.51370646860668</v>
@@ -34298,19 +34298,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M43" t="n">
-        <v>36.61384089471325</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N43" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O43" t="n">
-        <v>33.0146725181814</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P43" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.5586666172478</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R43" t="n">
         <v>10.50235208868826</v>
@@ -34319,7 +34319,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9979994908377442</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U43" t="n">
         <v>0.01274041903197122</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H44" t="n">
-        <v>5.332761675766619</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I44" t="n">
         <v>20.07482431392581</v>
@@ -34371,10 +34371,10 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K44" t="n">
-        <v>66.23676631405331</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L44" t="n">
-        <v>82.17256566811095</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M44" t="n">
         <v>91.4328122641236</v>
@@ -34383,13 +34383,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>87.73444147909908</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P44" t="n">
-        <v>74.87931599436934</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.23124788614112</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R44" t="n">
         <v>32.70929726501893</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H45" t="n">
         <v>2.690752461025844</v>
@@ -34471,7 +34471,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R45" t="n">
-        <v>17.29804352328877</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S45" t="n">
         <v>5.174993947522452</v>
@@ -34480,7 +34480,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,7 +34523,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I46" t="n">
-        <v>7.024217692960128</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J46" t="n">
         <v>16.51370646860668</v>
@@ -34535,19 +34535,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M46" t="n">
-        <v>36.61384089471325</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N46" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O46" t="n">
-        <v>33.0146725181814</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P46" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.5586666172478</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R46" t="n">
         <v>10.50235208868826</v>
@@ -34556,7 +34556,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9979994908377442</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U46" t="n">
         <v>0.01274041903197122</v>
